--- a/02-2018_Housing_Utility_Summary.xlsx
+++ b/02-2018_Housing_Utility_Summary.xlsx
@@ -1497,10 +1497,10 @@
   <cellStyleXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="175"/>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="175"/>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0"/>
     <xf borderId="9" fillId="0" fontId="23" numFmtId="0"/>
@@ -1544,12 +1544,12 @@
     <xf borderId="0" fillId="35" fontId="37" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="16" fillId="11" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="364">
@@ -3370,7 +3370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K312"/>
+  <dimension ref="A1:J312"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="E62" sqref="E62"/>
@@ -3387,15 +3387,15 @@
     <col customWidth="1" max="9" min="9" style="3" width="18.140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="3" spans="1:11">
+    <row customHeight="1" ht="15.75" r="1" s="3" spans="1:10">
       <c r="A1" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2" s="3" spans="1:11">
+    <row customHeight="1" ht="18" r="2" s="3" spans="1:10">
       <c r="A2" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="25.5" r="3" s="3" spans="1:11">
+    <row customHeight="1" ht="25.5" r="3" s="3" spans="1:10">
       <c r="A3" s="34" t="s">
         <v>94</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="287" t="s">
         <v>161</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="F4" s="13" t="n"/>
       <c r="G4" s="354" t="n"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="B5" s="6" t="s">
         <v>140</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="F5" s="13" t="n"/>
       <c r="G5" s="354" t="n"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="B6" s="6" t="s">
         <v>142</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="F6" s="13" t="n"/>
       <c r="G6" s="354" t="n"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="B7" s="6" t="s">
         <v>144</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="B8" s="6" t="s">
         <v>146</v>
       </c>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="I8" s="17" t="n"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:10">
       <c r="B9" s="6" t="s">
         <v>147</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="I9" s="23" t="n"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:10">
       <c r="B10" s="6" t="s">
         <v>148</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="I10" s="24" t="n"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="B11" s="6" t="s">
         <v>149</v>
       </c>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="I11" s="24" t="n"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="B12" s="6" t="s">
         <v>150</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:10">
       <c r="B13" s="6" t="s">
         <v>151</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="I13" s="18" t="n"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:10">
       <c r="B14" s="6" t="s">
         <v>152</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:10">
       <c r="B15" s="6" t="s">
         <v>153</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:10">
       <c r="A16" s="287" t="s">
         <v>162</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="F16" s="13" t="n"/>
       <c r="G16" s="354" t="n"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:10">
       <c r="B17" s="6" t="s">
         <v>140</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="F17" s="13" t="n"/>
       <c r="G17" s="354" t="n"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:10">
       <c r="B18" s="6" t="s">
         <v>142</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="F18" s="13" t="n"/>
       <c r="G18" s="354" t="n"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:10">
       <c r="B19" s="6" t="s">
         <v>144</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:10">
       <c r="B20" s="6" t="s">
         <v>146</v>
       </c>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="I20" s="361" t="n"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:10">
       <c r="B21" s="6" t="s">
         <v>147</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="I21" s="17" t="n"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:10">
       <c r="B22" s="6" t="s">
         <v>148</v>
       </c>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="I22" s="22" t="n"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:10">
       <c r="B23" s="6" t="s">
         <v>149</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="I23" s="11" t="n"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:10">
       <c r="B24" s="6" t="s">
         <v>150</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="I24" s="22" t="n"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:10">
       <c r="B25" s="6" t="s">
         <v>151</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="I25" s="18" t="n"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:10">
       <c r="B26" s="6" t="s">
         <v>152</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:10">
       <c r="B27" s="6" t="s">
         <v>153</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:10">
       <c r="A28" s="287" t="s">
         <v>164</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="F28" s="13" t="n"/>
       <c r="G28" s="354" t="n"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:10">
       <c r="B29" s="6" t="s">
         <v>140</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="F29" s="13" t="n"/>
       <c r="G29" s="354" t="n"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:10">
       <c r="B30" s="6" t="s">
         <v>142</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="F30" s="13" t="n"/>
       <c r="G30" s="354" t="n"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:10">
       <c r="B31" s="6" t="s">
         <v>144</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:10">
       <c r="B32" s="6" t="s">
         <v>146</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:10">
       <c r="B33" s="6" t="s">
         <v>147</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:10">
       <c r="B34" s="6" t="s">
         <v>148</v>
       </c>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="I34" s="18" t="n"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:10">
       <c r="B35" s="6" t="s">
         <v>149</v>
       </c>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="I35" s="11" t="n"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:10">
       <c r="B36" s="6" t="s">
         <v>150</v>
       </c>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I36" s="22" t="n"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:10">
       <c r="B37" s="6" t="s">
         <v>151</v>
       </c>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="I37" s="17" t="n"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:10">
       <c r="B38" s="6" t="s">
         <v>152</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="I38" s="18" t="n"/>
       <c r="J38" s="18" t="n"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:10">
       <c r="B39" s="6" t="s">
         <v>153</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:10">
       <c r="A40" s="287" t="s">
         <v>165</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="F40" s="13" t="n"/>
       <c r="G40" s="354" t="n"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:10">
       <c r="B41" s="6" t="s">
         <v>140</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="F41" s="13" t="n"/>
       <c r="G41" s="354" t="n"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:10">
       <c r="B42" s="6" t="s">
         <v>142</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="F42" s="13" t="n"/>
       <c r="G42" s="354" t="n"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:10">
       <c r="B43" s="6" t="s">
         <v>144</v>
       </c>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="I43" s="18" t="n"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:10">
       <c r="B44" s="6" t="s">
         <v>146</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:10">
       <c r="B45" s="6" t="s">
         <v>147</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:10">
       <c r="B46" s="6" t="s">
         <v>148</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:10">
       <c r="B47" s="6" t="s">
         <v>149</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:10">
       <c r="B48" s="6" t="s">
         <v>150</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:10">
       <c r="B49" s="6" t="s">
         <v>151</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:10">
       <c r="B50" s="6" t="s">
         <v>152</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:10">
       <c r="B51" s="6" t="s">
         <v>153</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:10">
       <c r="A52" s="287" t="s">
         <v>166</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="F52" s="13" t="n"/>
       <c r="G52" s="354" t="n"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:10">
       <c r="B53" s="6" t="s">
         <v>140</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="F53" s="13" t="n"/>
       <c r="G53" s="354" t="n"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:10">
       <c r="B54" s="6" t="s">
         <v>142</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="F54" s="13" t="n"/>
       <c r="G54" s="354" t="n"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:10">
       <c r="B55" s="6" t="s">
         <v>144</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:10">
       <c r="B56" s="6" t="s">
         <v>146</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:10">
       <c r="B57" s="6" t="s">
         <v>147</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:10">
       <c r="B58" s="6" t="s">
         <v>148</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:10">
       <c r="B59" s="6" t="s">
         <v>149</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:10">
       <c r="B60" s="6" t="s">
         <v>150</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:10">
       <c r="B61" s="6" t="s">
         <v>151</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:10">
       <c r="B62" s="6" t="s">
         <v>152</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:10">
       <c r="B63" s="6" t="s">
         <v>153</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:10">
       <c r="A64" s="287" t="s">
         <v>167</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="F64" s="13" t="n"/>
       <c r="G64" s="354" t="n"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:10">
       <c r="B65" s="6" t="s">
         <v>140</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="F65" s="13" t="n"/>
       <c r="G65" s="354" t="n"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:10">
       <c r="B66" s="6" t="s">
         <v>142</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="F66" s="13" t="n"/>
       <c r="G66" s="354" t="n"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:10">
       <c r="B67" s="6" t="s">
         <v>144</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:10">
       <c r="B68" s="6" t="s">
         <v>146</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:10">
       <c r="B69" s="6" t="s">
         <v>147</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:10">
       <c r="B70" s="6" t="s">
         <v>148</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:10">
       <c r="B71" s="6" t="s">
         <v>149</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:10">
       <c r="B72" s="6" t="s">
         <v>150</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:10">
       <c r="B73" s="6" t="s">
         <v>151</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:10">
       <c r="B74" s="6" t="s">
         <v>152</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:10">
       <c r="B75" s="6" t="s">
         <v>153</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:10">
       <c r="A76" s="287" t="s">
         <v>168</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="F76" s="13" t="n"/>
       <c r="G76" s="354" t="n"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:10">
       <c r="B77" s="6" t="s">
         <v>140</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="F77" s="13" t="n"/>
       <c r="G77" s="354" t="n"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:10">
       <c r="B78" s="6" t="s">
         <v>142</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="F78" s="13" t="n"/>
       <c r="G78" s="354" t="n"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:10">
       <c r="B79" s="6" t="s">
         <v>144</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:10">
       <c r="B80" s="6" t="s">
         <v>146</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:10">
       <c r="B81" s="6" t="s">
         <v>147</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:10">
       <c r="B82" s="6" t="s">
         <v>148</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:10">
       <c r="B83" s="6" t="s">
         <v>149</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:10">
       <c r="B84" s="6" t="s">
         <v>150</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:10">
       <c r="B85" s="6" t="s">
         <v>151</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:10">
       <c r="B86" s="6" t="s">
         <v>152</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:10">
       <c r="B87" s="6" t="s">
         <v>153</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:10">
       <c r="A88" s="287" t="s">
         <v>169</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="F88" s="13" t="n"/>
       <c r="G88" s="354" t="n"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:10">
       <c r="B89" s="6" t="s">
         <v>140</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="F89" s="13" t="n"/>
       <c r="G89" s="354" t="n"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:10">
       <c r="B90" s="6" t="s">
         <v>142</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="F90" s="4" t="n"/>
       <c r="G90" s="354" t="n"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:10">
       <c r="B91" s="6" t="s">
         <v>144</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:10">
       <c r="B92" s="6" t="s">
         <v>146</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:10">
       <c r="B93" s="6" t="s">
         <v>147</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:10">
       <c r="B94" s="6" t="s">
         <v>148</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:10">
       <c r="B95" s="6" t="s">
         <v>149</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:10">
       <c r="B96" s="6" t="s">
         <v>150</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:10">
       <c r="B97" s="6" t="s">
         <v>151</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:10">
       <c r="B98" s="6" t="s">
         <v>152</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:10">
       <c r="B99" s="6" t="s">
         <v>153</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:10">
       <c r="A100" s="287" t="s">
         <v>170</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="F100" s="13" t="n"/>
       <c r="G100" s="354" t="n"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:10">
       <c r="B101" s="6" t="s">
         <v>140</v>
       </c>
@@ -5210,7 +5210,7 @@
       <c r="F101" s="13" t="n"/>
       <c r="G101" s="354" t="n"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:10">
       <c r="B102" s="6" t="s">
         <v>142</v>
       </c>
@@ -5222,7 +5222,7 @@
       <c r="F102" s="13" t="n"/>
       <c r="G102" s="354" t="n"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:10">
       <c r="B103" s="6" t="s">
         <v>144</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:10">
       <c r="B104" s="6" t="s">
         <v>146</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:10">
       <c r="B105" s="6" t="s">
         <v>147</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:10">
       <c r="B106" s="6" t="s">
         <v>148</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:10">
       <c r="B107" s="6" t="s">
         <v>149</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:10">
       <c r="B108" s="6" t="s">
         <v>150</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:10">
       <c r="B109" s="6" t="s">
         <v>151</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:10">
       <c r="B110" s="6" t="s">
         <v>152</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:10">
       <c r="B111" s="6" t="s">
         <v>153</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:10">
       <c r="A112" s="287" t="s">
         <v>171</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="F112" s="13" t="n"/>
       <c r="G112" s="354" t="n"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:10">
       <c r="B113" s="6" t="s">
         <v>140</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="F113" s="13" t="n"/>
       <c r="G113" s="354" t="n"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:10">
       <c r="B114" s="6" t="s">
         <v>142</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="F114" s="13" t="n"/>
       <c r="G114" s="354" t="n"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:10">
       <c r="B115" s="6" t="s">
         <v>144</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:10">
       <c r="B116" s="6" t="s">
         <v>146</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:10">
       <c r="B117" s="6" t="s">
         <v>147</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:10">
       <c r="B118" s="6" t="s">
         <v>148</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:10">
       <c r="B119" s="6" t="s">
         <v>149</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:10">
       <c r="B120" s="6" t="s">
         <v>150</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:10">
       <c r="B121" s="6" t="s">
         <v>151</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:10">
       <c r="B122" s="6" t="s">
         <v>152</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:10">
       <c r="B123" s="6" t="s">
         <v>153</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:10">
       <c r="A124" s="287" t="s">
         <v>172</v>
       </c>
@@ -5640,7 +5640,7 @@
       <c r="F124" s="13" t="n"/>
       <c r="G124" s="354" t="n"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:10">
       <c r="B125" s="6" t="s">
         <v>140</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="F125" s="13" t="n"/>
       <c r="G125" s="354" t="n"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:10">
       <c r="B126" s="6" t="s">
         <v>142</v>
       </c>
@@ -5660,7 +5660,7 @@
       <c r="F126" s="13" t="n"/>
       <c r="G126" s="354" t="n"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:10">
       <c r="B127" s="6" t="s">
         <v>144</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:10">
       <c r="B128" s="6" t="s">
         <v>146</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:10">
       <c r="B129" s="6" t="s">
         <v>147</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:10">
       <c r="B130" s="6" t="s">
         <v>148</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:10">
       <c r="B131" s="6" t="s">
         <v>149</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:10">
       <c r="B132" s="6" t="s">
         <v>150</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:10">
       <c r="B133" s="6" t="s">
         <v>151</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:10">
       <c r="B134" s="6" t="s">
         <v>152</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:10">
       <c r="B135" s="6" t="s">
         <v>153</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:10">
       <c r="A136" s="45" t="n"/>
       <c r="B136" s="70" t="n"/>
       <c r="C136" s="70" t="n"/>
@@ -5845,7 +5845,7 @@
       <c r="G136" s="361" t="n"/>
       <c r="H136" s="351" t="n"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:10">
       <c r="A137" s="8" t="s">
         <v>34</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="F137" s="70" t="n"/>
       <c r="G137" s="361" t="n"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:10">
       <c r="A138" s="8" t="s">
         <v>105</v>
       </c>
@@ -5867,7 +5867,7 @@
       <c r="F138" s="70" t="n"/>
       <c r="G138" s="70" t="n"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:10">
       <c r="A139" s="45" t="s">
         <v>173</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="F139" s="70" t="n"/>
       <c r="G139" s="70" t="n"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:10">
       <c r="A140" s="45" t="s">
         <v>38</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="F140" s="70" t="n"/>
       <c r="G140" s="70" t="n"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:10">
       <c r="A141" s="45" t="s">
         <v>39</v>
       </c>
@@ -5900,7 +5900,7 @@
       <c r="F141" s="70" t="n"/>
       <c r="G141" s="70" t="n"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:10">
       <c r="A142" s="45" t="n"/>
       <c r="B142" s="67" t="n"/>
       <c r="C142" s="70" t="n"/>
@@ -5909,7 +5909,7 @@
       <c r="F142" s="70" t="n"/>
       <c r="G142" s="70" t="n"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:10">
       <c r="A143" s="45" t="n"/>
       <c r="B143" s="67" t="n"/>
       <c r="C143" s="70" t="n"/>
@@ -5918,679 +5918,679 @@
       <c r="F143" s="70" t="n"/>
       <c r="G143" s="70" t="n"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:10">
       <c r="A144" s="45" t="n"/>
       <c r="B144" s="67" t="n"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:10">
       <c r="A145" s="45" t="n"/>
       <c r="B145" s="67" t="n"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:10">
       <c r="A146" s="45" t="n"/>
       <c r="B146" s="67" t="n"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:10">
       <c r="A147" s="45" t="n"/>
       <c r="B147" s="67" t="n"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:10">
       <c r="A148" s="45" t="n"/>
       <c r="B148" s="67" t="n"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:10">
       <c r="A149" s="45" t="n"/>
       <c r="B149" s="67" t="n"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:10">
       <c r="A150" s="45" t="n"/>
       <c r="B150" s="67" t="n"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:10">
       <c r="A151" s="45" t="n"/>
       <c r="B151" s="67" t="n"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:10">
       <c r="A152" s="45" t="n"/>
       <c r="B152" s="67" t="n"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:10">
       <c r="A153" s="45" t="n"/>
       <c r="B153" s="67" t="n"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:10">
       <c r="A154" s="45" t="n"/>
       <c r="B154" s="67" t="n"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:10">
       <c r="A155" s="45" t="n"/>
       <c r="B155" s="67" t="n"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:10">
       <c r="A156" s="45" t="n"/>
       <c r="B156" s="67" t="n"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:10">
       <c r="A157" s="45" t="n"/>
       <c r="B157" s="67" t="n"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:10">
       <c r="A158" s="45" t="n"/>
       <c r="B158" s="67" t="n"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:10">
       <c r="A159" s="45" t="n"/>
       <c r="B159" s="67" t="n"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:10">
       <c r="A160" s="45" t="n"/>
       <c r="B160" s="67" t="n"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:10">
       <c r="A161" s="45" t="n"/>
       <c r="B161" s="67" t="n"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:10">
       <c r="A162" s="45" t="n"/>
       <c r="B162" s="67" t="n"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:10">
       <c r="A163" s="45" t="n"/>
       <c r="B163" s="67" t="n"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:10">
       <c r="A164" s="45" t="n"/>
       <c r="B164" s="67" t="n"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:10">
       <c r="A165" s="45" t="n"/>
       <c r="B165" s="67" t="n"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:10">
       <c r="A166" s="45" t="n"/>
       <c r="B166" s="67" t="n"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:10">
       <c r="A167" s="45" t="n"/>
       <c r="B167" s="67" t="n"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:10">
       <c r="A168" s="45" t="n"/>
       <c r="B168" s="67" t="n"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:10">
       <c r="A169" s="45" t="n"/>
       <c r="B169" s="67" t="n"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:10">
       <c r="A170" s="45" t="n"/>
       <c r="B170" s="67" t="n"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:10">
       <c r="A171" s="45" t="n"/>
       <c r="B171" s="67" t="n"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:10">
       <c r="A172" s="45" t="n"/>
       <c r="B172" s="67" t="n"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:10">
       <c r="A173" s="45" t="n"/>
       <c r="B173" s="67" t="n"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:10">
       <c r="A174" s="45" t="n"/>
       <c r="B174" s="67" t="n"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:10">
       <c r="A175" s="45" t="n"/>
       <c r="B175" s="67" t="n"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:10">
       <c r="A176" s="45" t="n"/>
       <c r="B176" s="67" t="n"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:10">
       <c r="A177" s="45" t="n"/>
       <c r="B177" s="67" t="n"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:10">
       <c r="A178" s="45" t="n"/>
       <c r="B178" s="67" t="n"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:10">
       <c r="A179" s="45" t="n"/>
       <c r="B179" s="67" t="n"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:10">
       <c r="A180" s="45" t="n"/>
       <c r="B180" s="67" t="n"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:10">
       <c r="A181" s="45" t="n"/>
       <c r="B181" s="67" t="n"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:10">
       <c r="A182" s="45" t="n"/>
       <c r="B182" s="67" t="n"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:10">
       <c r="A183" s="45" t="n"/>
       <c r="B183" s="67" t="n"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:10">
       <c r="A184" s="45" t="n"/>
       <c r="B184" s="67" t="n"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:10">
       <c r="A185" s="45" t="n"/>
       <c r="B185" s="67" t="n"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:10">
       <c r="A186" s="45" t="n"/>
       <c r="B186" s="67" t="n"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:10">
       <c r="A187" s="45" t="n"/>
       <c r="B187" s="67" t="n"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:10">
       <c r="A188" s="45" t="n"/>
       <c r="B188" s="67" t="n"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:10">
       <c r="A189" s="45" t="n"/>
       <c r="B189" s="67" t="n"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:10">
       <c r="A190" s="45" t="n"/>
       <c r="B190" s="67" t="n"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:10">
       <c r="A191" s="45" t="n"/>
       <c r="B191" s="67" t="n"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:10">
       <c r="A192" s="45" t="n"/>
       <c r="B192" s="67" t="n"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:10">
       <c r="A193" s="45" t="n"/>
       <c r="B193" s="67" t="n"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:10">
       <c r="A194" s="45" t="n"/>
       <c r="B194" s="67" t="n"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:10">
       <c r="A195" s="45" t="n"/>
       <c r="B195" s="67" t="n"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:10">
       <c r="A196" s="45" t="n"/>
       <c r="B196" s="67" t="n"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:10">
       <c r="A197" s="45" t="n"/>
       <c r="B197" s="67" t="n"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:10">
       <c r="A198" s="45" t="n"/>
       <c r="B198" s="67" t="n"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:10">
       <c r="A199" s="45" t="n"/>
       <c r="B199" s="67" t="n"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:10">
       <c r="A200" s="45" t="n"/>
       <c r="B200" s="67" t="n"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:10">
       <c r="A201" s="45" t="n"/>
       <c r="B201" s="67" t="n"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:10">
       <c r="A202" s="45" t="n"/>
       <c r="B202" s="67" t="n"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:10">
       <c r="A203" s="45" t="n"/>
       <c r="B203" s="67" t="n"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:10">
       <c r="A204" s="45" t="n"/>
       <c r="B204" s="67" t="n"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:10">
       <c r="A205" s="45" t="n"/>
       <c r="B205" s="67" t="n"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:10">
       <c r="A206" s="45" t="n"/>
       <c r="B206" s="67" t="n"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:10">
       <c r="A207" s="45" t="n"/>
       <c r="B207" s="67" t="n"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:10">
       <c r="A208" s="45" t="n"/>
       <c r="B208" s="67" t="n"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:10">
       <c r="A209" s="45" t="n"/>
       <c r="B209" s="67" t="n"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:10">
       <c r="A210" s="45" t="n"/>
       <c r="B210" s="67" t="n"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:10">
       <c r="A211" s="45" t="n"/>
       <c r="B211" s="67" t="n"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:10">
       <c r="A212" s="45" t="n"/>
       <c r="B212" s="67" t="n"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:10">
       <c r="A213" s="45" t="n"/>
       <c r="B213" s="67" t="n"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:10">
       <c r="A214" s="45" t="n"/>
       <c r="B214" s="67" t="n"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:10">
       <c r="A215" s="45" t="n"/>
       <c r="B215" s="67" t="n"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:10">
       <c r="A216" s="45" t="n"/>
       <c r="B216" s="67" t="n"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:10">
       <c r="A217" s="45" t="n"/>
       <c r="B217" s="67" t="n"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:10">
       <c r="A218" s="45" t="n"/>
       <c r="B218" s="67" t="n"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:10">
       <c r="A219" s="45" t="n"/>
       <c r="B219" s="67" t="n"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:10">
       <c r="A220" s="45" t="n"/>
       <c r="B220" s="67" t="n"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:10">
       <c r="A221" s="45" t="n"/>
       <c r="B221" s="67" t="n"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:10">
       <c r="A222" s="45" t="n"/>
       <c r="B222" s="67" t="n"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:10">
       <c r="A223" s="45" t="n"/>
       <c r="B223" s="67" t="n"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:10">
       <c r="A224" s="45" t="n"/>
       <c r="B224" s="67" t="n"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:10">
       <c r="A225" s="45" t="n"/>
       <c r="B225" s="67" t="n"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:10">
       <c r="A226" s="45" t="n"/>
       <c r="B226" s="67" t="n"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:10">
       <c r="A227" s="45" t="n"/>
       <c r="B227" s="67" t="n"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:10">
       <c r="A228" s="45" t="n"/>
       <c r="B228" s="67" t="n"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:10">
       <c r="A229" s="45" t="n"/>
       <c r="B229" s="67" t="n"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:10">
       <c r="A230" s="45" t="n"/>
       <c r="B230" s="67" t="n"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:10">
       <c r="A231" s="45" t="n"/>
       <c r="B231" s="67" t="n"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:10">
       <c r="A232" s="45" t="n"/>
       <c r="B232" s="67" t="n"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:10">
       <c r="A233" s="45" t="n"/>
       <c r="B233" s="67" t="n"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:10">
       <c r="A234" s="45" t="n"/>
       <c r="B234" s="67" t="n"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:10">
       <c r="A235" s="45" t="n"/>
       <c r="B235" s="67" t="n"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:10">
       <c r="A236" s="45" t="n"/>
       <c r="B236" s="67" t="n"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:10">
       <c r="A237" s="45" t="n"/>
       <c r="B237" s="67" t="n"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:10">
       <c r="A238" s="45" t="n"/>
       <c r="B238" s="67" t="n"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:10">
       <c r="A239" s="45" t="n"/>
       <c r="B239" s="67" t="n"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:10">
       <c r="A240" s="45" t="n"/>
       <c r="B240" s="67" t="n"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:10">
       <c r="A241" s="45" t="n"/>
       <c r="B241" s="67" t="n"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:10">
       <c r="A242" s="45" t="n"/>
       <c r="B242" s="67" t="n"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:10">
       <c r="A243" s="45" t="n"/>
       <c r="B243" s="67" t="n"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:10">
       <c r="A244" s="45" t="n"/>
       <c r="B244" s="67" t="n"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:10">
       <c r="A245" s="45" t="n"/>
       <c r="B245" s="67" t="n"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:10">
       <c r="A246" s="45" t="n"/>
       <c r="B246" s="67" t="n"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:10">
       <c r="A247" s="45" t="n"/>
       <c r="B247" s="67" t="n"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:10">
       <c r="A248" s="45" t="n"/>
       <c r="B248" s="67" t="n"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:10">
       <c r="A249" s="45" t="n"/>
       <c r="B249" s="67" t="n"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:10">
       <c r="A250" s="45" t="n"/>
       <c r="B250" s="67" t="n"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:10">
       <c r="A251" s="45" t="n"/>
       <c r="B251" s="67" t="n"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:10">
       <c r="A252" s="45" t="n"/>
       <c r="B252" s="67" t="n"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:10">
       <c r="A253" s="45" t="n"/>
       <c r="B253" s="67" t="n"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:10">
       <c r="A254" s="45" t="n"/>
       <c r="B254" s="67" t="n"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:10">
       <c r="A255" s="45" t="n"/>
       <c r="B255" s="67" t="n"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:10">
       <c r="A256" s="45" t="n"/>
       <c r="B256" s="67" t="n"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:10">
       <c r="A257" s="45" t="n"/>
       <c r="B257" s="67" t="n"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:10">
       <c r="A258" s="45" t="n"/>
       <c r="B258" s="67" t="n"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:10">
       <c r="A259" s="45" t="n"/>
       <c r="B259" s="67" t="n"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:10">
       <c r="A260" s="45" t="n"/>
       <c r="B260" s="67" t="n"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:10">
       <c r="A261" s="45" t="n"/>
       <c r="B261" s="67" t="n"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:10">
       <c r="A262" s="45" t="n"/>
       <c r="B262" s="67" t="n"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:10">
       <c r="A263" s="45" t="n"/>
       <c r="B263" s="67" t="n"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:10">
       <c r="A264" s="45" t="n"/>
       <c r="B264" s="67" t="n"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:10">
       <c r="A265" s="45" t="n"/>
       <c r="B265" s="67" t="n"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:10">
       <c r="A266" s="45" t="n"/>
       <c r="B266" s="67" t="n"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:10">
       <c r="A267" s="45" t="n"/>
       <c r="B267" s="67" t="n"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:10">
       <c r="A268" s="45" t="n"/>
       <c r="B268" s="67" t="n"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:10">
       <c r="A269" s="45" t="n"/>
       <c r="B269" s="67" t="n"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:10">
       <c r="A270" s="45" t="n"/>
       <c r="B270" s="67" t="n"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:10">
       <c r="A271" s="45" t="n"/>
       <c r="B271" s="67" t="n"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:10">
       <c r="A272" s="45" t="n"/>
       <c r="B272" s="67" t="n"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:10">
       <c r="A273" s="45" t="n"/>
       <c r="B273" s="67" t="n"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:10">
       <c r="A274" s="45" t="n"/>
       <c r="B274" s="67" t="n"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:10">
       <c r="A275" s="45" t="n"/>
       <c r="B275" s="67" t="n"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:10">
       <c r="A276" s="45" t="n"/>
       <c r="B276" s="67" t="n"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:10">
       <c r="A277" s="45" t="n"/>
       <c r="B277" s="67" t="n"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:10">
       <c r="A278" s="45" t="n"/>
       <c r="B278" s="67" t="n"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:10">
       <c r="A279" s="45" t="n"/>
       <c r="B279" s="67" t="n"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:10">
       <c r="A280" s="45" t="n"/>
       <c r="B280" s="67" t="n"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:10">
       <c r="A281" s="45" t="n"/>
       <c r="B281" s="67" t="n"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:10">
       <c r="A282" s="45" t="n"/>
       <c r="B282" s="67" t="n"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:10">
       <c r="A283" s="45" t="n"/>
       <c r="B283" s="67" t="n"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:10">
       <c r="A284" s="45" t="n"/>
       <c r="B284" s="67" t="n"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:10">
       <c r="A285" s="45" t="n"/>
       <c r="B285" s="67" t="n"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:10">
       <c r="A286" s="45" t="n"/>
       <c r="B286" s="67" t="n"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:10">
       <c r="A287" s="45" t="n"/>
       <c r="B287" s="67" t="n"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:10">
       <c r="A288" s="45" t="n"/>
       <c r="B288" s="67" t="n"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:10">
       <c r="A289" s="45" t="n"/>
       <c r="B289" s="67" t="n"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:10">
       <c r="A290" s="45" t="n"/>
       <c r="B290" s="67" t="n"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:10">
       <c r="A291" s="45" t="n"/>
       <c r="B291" s="67" t="n"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:10">
       <c r="A292" s="45" t="n"/>
       <c r="B292" s="67" t="n"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:10">
       <c r="A293" s="45" t="n"/>
       <c r="B293" s="67" t="n"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:10">
       <c r="A294" s="45" t="n"/>
       <c r="B294" s="67" t="n"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:10">
       <c r="A295" s="45" t="n"/>
       <c r="B295" s="67" t="n"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:10">
       <c r="A296" s="45" t="n"/>
       <c r="B296" s="67" t="n"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:10">
       <c r="A297" s="45" t="n"/>
       <c r="B297" s="67" t="n"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:10">
       <c r="A298" s="45" t="n"/>
       <c r="B298" s="67" t="n"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:10">
       <c r="A299" s="45" t="n"/>
       <c r="B299" s="67" t="n"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:10">
       <c r="A300" s="45" t="n"/>
       <c r="B300" s="67" t="n"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:10">
       <c r="A301" s="45" t="n"/>
       <c r="B301" s="67" t="n"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:10">
       <c r="A302" s="45" t="n"/>
       <c r="B302" s="67" t="n"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:10">
       <c r="A303" s="45" t="n"/>
       <c r="B303" s="67" t="n"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:10">
       <c r="A304" s="45" t="n"/>
       <c r="B304" s="67" t="n"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:10">
       <c r="A305" s="45" t="n"/>
       <c r="B305" s="67" t="n"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:10">
       <c r="A306" s="45" t="n"/>
       <c r="B306" s="67" t="n"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:10">
       <c r="A307" s="45" t="n"/>
       <c r="B307" s="67" t="n"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:10">
       <c r="A308" s="45" t="n"/>
       <c r="B308" s="67" t="n"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:10">
       <c r="A309" s="45" t="n"/>
       <c r="B309" s="67" t="n"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:10">
       <c r="A310" s="45" t="n"/>
       <c r="B310" s="67" t="n"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:10">
       <c r="A311" s="45" t="n"/>
       <c r="B311" s="67" t="n"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:10">
       <c r="A312" s="45" t="n"/>
       <c r="B312" s="67" t="n"/>
     </row>
@@ -6865,11 +6865,11 @@
         <v/>
       </c>
       <c r="I6" s="86">
-        <f>AVERAGE(830,196)</f>
+        <f>3860.20207585401/(2972/2976)</f>
         <v/>
       </c>
       <c r="J6" s="86">
-        <f>917.822/(2688/2688)</f>
+        <f>3860.20207585401/(2972/2976)</f>
         <v/>
       </c>
       <c r="K6" s="86">
@@ -7005,11 +7005,11 @@
         <v/>
       </c>
       <c r="I9" s="86">
-        <f>AVERAGE(390,1460)</f>
+        <f>8975.26588110453/(2971/2976)</f>
         <v/>
       </c>
       <c r="J9" s="86">
-        <f>3352.169/(2688/2688)</f>
+        <f>8975.26588110453/(2971/2976)</f>
         <v/>
       </c>
       <c r="K9" s="86">
@@ -7145,11 +7145,11 @@
         <v/>
       </c>
       <c r="I12" s="86">
-        <f>AVERAGE(334,1201)</f>
+        <f>1757.68698106828/(2972/2976)</f>
         <v/>
       </c>
       <c r="J12" s="86">
-        <f>1079.274/(2688/2688)</f>
+        <f>1757.68698106828/(2972/2976)</f>
         <v/>
       </c>
       <c r="K12" s="86">
@@ -7285,11 +7285,11 @@
         <v/>
       </c>
       <c r="I15" s="86">
-        <f>AVERAGE(274,770)</f>
+        <f>3990.7936183872/(2530/2976)</f>
         <v/>
       </c>
       <c r="J15" s="86">
-        <f>2300.9257/(2688/2688)</f>
+        <f>3990.7936183872/(2530/2976)</f>
         <v/>
       </c>
       <c r="K15" s="86">
@@ -7425,11 +7425,11 @@
         <v/>
       </c>
       <c r="I18" s="86">
-        <f>AVERAGE(235,729)</f>
+        <f>1233.43552703101/(2955/2976)</f>
         <v/>
       </c>
       <c r="J18" s="86">
-        <f>1440.5931/(2688/2688)</f>
+        <f>1233.43552703101/(2955/2976)</f>
         <v/>
       </c>
       <c r="K18" s="86">
@@ -7565,11 +7565,11 @@
         <v/>
       </c>
       <c r="I21" s="86">
-        <f>AVERAGE(256,270)</f>
+        <f>1454.37093320181/(2955/2976)</f>
         <v/>
       </c>
       <c r="J21" s="86">
-        <f>592.1828/(2688/2688)</f>
+        <f>1454.37093320181/(2955/2976)</f>
         <v/>
       </c>
       <c r="K21" s="86">
@@ -7705,11 +7705,11 @@
         <v/>
       </c>
       <c r="I24" s="86">
-        <f>AVERAGE(849, 5440)</f>
+        <f>899.879791125804/(2955/2976)</f>
         <v/>
       </c>
       <c r="J24" s="86">
-        <f>1120.3726/(2688/2688)</f>
+        <f>899.879791125804/(2955/2976)</f>
         <v/>
       </c>
       <c r="K24" s="86">
@@ -7845,11 +7845,11 @@
         <v/>
       </c>
       <c r="I27" s="86">
-        <f>AVERAGE(406,217)</f>
+        <f>3811.27950818559/(2955/2976)</f>
         <v/>
       </c>
       <c r="J27" s="86">
-        <f>373.628/(2688/2688)</f>
+        <f>3811.27950818559/(2955/2976)</f>
         <v/>
       </c>
       <c r="K27" s="86">
@@ -7962,8 +7962,14 @@
       <c r="F30" s="142" t="n"/>
       <c r="G30" s="142" t="n"/>
       <c r="H30" s="142" t="n"/>
-      <c r="I30" s="142" t="n"/>
-      <c r="J30" s="142" t="n"/>
+      <c r="I30" s="142">
+        <f>1805.955308172/(2955/2976)</f>
+        <v/>
+      </c>
+      <c r="J30" s="142">
+        <f>1805.955308172/(2955/2976)</f>
+        <v/>
+      </c>
       <c r="K30" s="142">
         <f>1805.955308172/(2955/2976)</f>
         <v/>
@@ -8105,8 +8111,14 @@
       <c r="F33" s="142" t="n"/>
       <c r="G33" s="142" t="n"/>
       <c r="H33" s="142" t="n"/>
-      <c r="I33" s="142" t="n"/>
-      <c r="J33" s="142" t="n"/>
+      <c r="I33" s="142">
+        <f>2395.96358288426/(2955/2976)</f>
+        <v/>
+      </c>
+      <c r="J33" s="142">
+        <f>2395.96358288426/(2955/2976)</f>
+        <v/>
+      </c>
       <c r="K33" s="142">
         <f>2395.96358288426/(2955/2976)</f>
         <v/>
@@ -8247,8 +8259,14 @@
       <c r="F36" s="142" t="n"/>
       <c r="G36" s="142" t="n"/>
       <c r="H36" s="142" t="n"/>
-      <c r="I36" s="142" t="n"/>
-      <c r="J36" s="142" t="n"/>
+      <c r="I36" s="142">
+        <f>3955.37655887455/(2955/2976)</f>
+        <v/>
+      </c>
+      <c r="J36" s="142">
+        <f>3955.37655887455/(2955/2976)</f>
+        <v/>
+      </c>
       <c r="K36" s="142">
         <f>3955.37655887455/(2955/2976)</f>
         <v/>
@@ -8390,8 +8408,14 @@
       <c r="F39" s="290" t="n"/>
       <c r="G39" s="290" t="n"/>
       <c r="H39" s="290" t="n"/>
-      <c r="I39" s="290" t="n"/>
-      <c r="J39" s="290" t="n"/>
+      <c r="I39" s="290">
+        <f>344.064584811527/(2955/2976)</f>
+        <v/>
+      </c>
+      <c r="J39" s="290">
+        <f>344.064584811527/(2955/2976)</f>
+        <v/>
+      </c>
       <c r="K39" s="290">
         <f>344.064584811527/(2955/2976)</f>
         <v/>
@@ -8535,8 +8559,14 @@
       <c r="F42" s="296" t="n"/>
       <c r="G42" s="296" t="n"/>
       <c r="H42" s="296" t="n"/>
-      <c r="I42" s="296" t="n"/>
-      <c r="J42" s="296" t="n"/>
+      <c r="I42" s="296">
+        <f>711.96540559401/(2955/2976)</f>
+        <v/>
+      </c>
+      <c r="J42" s="296">
+        <f>711.96540559401/(2955/2976)</f>
+        <v/>
+      </c>
       <c r="K42" s="296">
         <f>711.96540559401/(2955/2976)</f>
         <v/>
@@ -8680,8 +8710,14 @@
       <c r="F45" s="296" t="n"/>
       <c r="G45" s="296" t="n"/>
       <c r="H45" s="296" t="n"/>
-      <c r="I45" s="296" t="n"/>
-      <c r="J45" s="296" t="n"/>
+      <c r="I45" s="296">
+        <f>1483.41449223786/(2955/2976)</f>
+        <v/>
+      </c>
+      <c r="J45" s="296">
+        <f>1483.41449223786/(2955/2976)</f>
+        <v/>
+      </c>
       <c r="K45" s="296">
         <f>1483.41449223786/(2955/2976)</f>
         <v/>
@@ -13390,11 +13426,11 @@
         <v/>
       </c>
       <c r="I5" s="308">
-        <f>(114810.28+126949.47+14854.14+1506.62)/(1684658+97143)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="J5" s="310">
-        <f>(122407.06+27007.58+107322.26+1506.62)/(1574771+0+176624)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="K5" s="308">
@@ -13451,11 +13487,11 @@
         <v/>
       </c>
       <c r="I6" s="273">
-        <f>35132.37/(2976/2976)</f>
+        <f>40520.913734436/(2972/2976)</f>
         <v/>
       </c>
       <c r="J6" s="273">
-        <f>38286.589/(2688/2688)</f>
+        <f>40520.913734436/(2972/2976)</f>
         <v/>
       </c>
       <c r="K6" s="273">
@@ -13587,11 +13623,11 @@
         <v/>
       </c>
       <c r="I9" s="273">
-        <f>40652.99/(2976/2976)</f>
+        <f>42685.1390946004/(2832/2976)</f>
         <v/>
       </c>
       <c r="J9" s="273">
-        <f>44180.369/(2688/2688)</f>
+        <f>42685.1390946004/(2832/2976)</f>
         <v/>
       </c>
       <c r="K9" s="273">
@@ -13722,11 +13758,11 @@
         <v/>
       </c>
       <c r="I12" s="273">
-        <f>29520.06/(2846/2976)</f>
+        <f>32820.8530445098/(2972/2976)</f>
         <v/>
       </c>
       <c r="J12" s="273">
-        <f>30818.777/(2688/2688)</f>
+        <f>32820.8530445098/(2972/2976)</f>
         <v/>
       </c>
       <c r="K12" s="273">
@@ -13857,11 +13893,11 @@
         <v/>
       </c>
       <c r="I15" s="273">
-        <f>AVERAGE([1]Electricity!$I$48,[2]Electricity!$I$48)</f>
+        <f>70994/(2976/2976)</f>
         <v/>
       </c>
       <c r="J15" s="273">
-        <f>AVERAGE(43453.3818, 44692.21)</f>
+        <f>70994/(2976/2976)</f>
         <v/>
       </c>
       <c r="K15" s="270">
@@ -13993,11 +14029,11 @@
         <v/>
       </c>
       <c r="I18" s="273">
-        <f>AVERAGE(4643,4654)</f>
+        <f>5613.75071382522/(2955/2976)</f>
         <v/>
       </c>
       <c r="J18" s="273">
-        <f>6071.25077/(2688/2688)</f>
+        <f>5613.75071382522/(2955/2976)</f>
         <v/>
       </c>
       <c r="K18" s="281">
@@ -14124,10 +14160,10 @@
         <v>2623847</v>
       </c>
       <c r="I21" s="273" t="n">
-        <v>2639619</v>
+        <v>2680920</v>
       </c>
       <c r="J21" s="273" t="n">
-        <v>2659219</v>
+        <v>2680920</v>
       </c>
       <c r="K21" s="273" t="n">
         <v>2680920</v>
@@ -14318,11 +14354,11 @@
         <v/>
       </c>
       <c r="I25" s="273">
-        <f>AVERAGE(1983,1996)</f>
+        <f>2938.12537360191/(2955/2976)</f>
         <v/>
       </c>
       <c r="J25" s="273">
-        <f>2733.75/(2688/2688)</f>
+        <f>2938.12537360191/(2955/2976)</f>
         <v/>
       </c>
       <c r="K25" s="273">
@@ -14458,11 +14494,11 @@
         <v/>
       </c>
       <c r="I28" s="273">
-        <f>AVERAGE(2747,2998)</f>
+        <f>4125.00052452087/(2955/2976)</f>
         <v/>
       </c>
       <c r="J28" s="273">
-        <f>4243.1255/(2688/2688)</f>
+        <f>4125.00052452087/(2955/2976)</f>
         <v/>
       </c>
       <c r="K28" s="273">
@@ -14596,11 +14632,11 @@
         <v/>
       </c>
       <c r="I31" s="273">
-        <f>AVERAGE(3126,3707)</f>
+        <f>4777.50060749054/(2955/2976)</f>
         <v/>
       </c>
       <c r="J31" s="273">
-        <f>4770/(2688/2688)</f>
+        <f>4777.50060749054/(2955/2976)</f>
         <v/>
       </c>
       <c r="K31" s="273">
@@ -14732,11 +14768,11 @@
         <v/>
       </c>
       <c r="I34" s="273">
-        <f>AVERAGE(5328,5723)</f>
+        <f>6650.6258456707/(2955/2976)</f>
         <v/>
       </c>
       <c r="J34" s="273">
-        <f>6798.75/(2688/2688)</f>
+        <f>6650.6258456707/(2955/2976)</f>
         <v/>
       </c>
       <c r="K34" s="273">
@@ -14851,11 +14887,11 @@
         <v/>
       </c>
       <c r="I37" s="273">
-        <f>AVERAGE(3249,4047)</f>
+        <f>5045.62564158439/(2955/2976)</f>
         <v/>
       </c>
       <c r="J37" s="273">
-        <f>5101.8756/(2688/2688)</f>
+        <f>5045.62564158439/(2955/2976)</f>
         <v/>
       </c>
       <c r="K37" s="273">
@@ -14987,11 +15023,11 @@
         <v/>
       </c>
       <c r="I40" s="273">
-        <f>AVERAGE(1814,2080)</f>
+        <f>3129.3753979206/(2955/2976)</f>
         <v/>
       </c>
       <c r="J40" s="273">
-        <f>3069.375/(2688/2688)</f>
+        <f>3129.3753979206/(2955/2976)</f>
         <v/>
       </c>
       <c r="K40" s="273">
@@ -15123,11 +15159,11 @@
         <v/>
       </c>
       <c r="I43" s="273">
-        <f>AVERAGE(4257,5434)</f>
+        <f>5161.87565636634/(2955/2976)</f>
         <v/>
       </c>
       <c r="J43" s="273">
-        <f>5386.8756/(2688/2688)</f>
+        <f>5161.87565636634/(2955/2976)</f>
         <v/>
       </c>
       <c r="K43" s="273">
@@ -15259,11 +15295,11 @@
         <v/>
       </c>
       <c r="I46" s="273">
-        <f>AVERAGE(3287,4339)</f>
+        <f>4813.12561202049/(2955/2976)</f>
         <v/>
       </c>
       <c r="J46" s="273">
-        <f>4854.3756/(2688/2688)</f>
+        <f>4813.12561202049/(2955/2976)</f>
         <v/>
       </c>
       <c r="K46" s="273">
@@ -15903,11 +15939,11 @@
         <v/>
       </c>
       <c r="I5" s="322">
-        <f>83220.82/94904</f>
+        <f>39875.35/47350</f>
         <v/>
       </c>
       <c r="J5" s="322">
-        <f>67910.85/74496</f>
+        <f>39875.35/47350</f>
         <v/>
       </c>
       <c r="K5" s="322">
@@ -15972,11 +16008,11 @@
       <c r="H7" s="213" t="n">
         <v>70901</v>
       </c>
-      <c r="I7" s="213" t="n">
-        <v>74582</v>
-      </c>
-      <c r="J7" s="213" t="n">
-        <v>75150</v>
+      <c r="I7" s="213" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="213" t="s">
+        <v>75</v>
       </c>
       <c r="K7" s="213" t="s">
         <v>75</v>
@@ -16154,11 +16190,11 @@
       <c r="H11" s="213" t="n">
         <v>44738</v>
       </c>
-      <c r="I11" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="138" t="n">
-        <v>731</v>
+      <c r="I11" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="138" t="s">
+        <v>80</v>
       </c>
       <c r="K11" s="138" t="s">
         <v>80</v>
@@ -16334,11 +16370,11 @@
       <c r="H15" s="138" t="n">
         <v>75991</v>
       </c>
-      <c r="I15" s="138" t="n">
-        <v>76515</v>
-      </c>
-      <c r="J15" s="138" t="n">
-        <v>77223</v>
+      <c r="I15" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="138" t="s">
+        <v>81</v>
       </c>
       <c r="K15" s="138" t="s">
         <v>81</v>
@@ -16575,11 +16611,11 @@
       <c r="H20" s="209" t="n">
         <v>64496</v>
       </c>
-      <c r="I20" s="209" t="n">
-        <v>65923</v>
-      </c>
-      <c r="J20" s="209" t="n">
-        <v>67699</v>
+      <c r="I20" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="209" t="s">
+        <v>82</v>
       </c>
       <c r="K20" s="209" t="s">
         <v>82</v>
@@ -16814,11 +16850,11 @@
       <c r="H25" s="209" t="n">
         <v>55557</v>
       </c>
-      <c r="I25" s="209" t="n">
-        <v>56245</v>
-      </c>
-      <c r="J25" s="209" t="n">
-        <v>57377</v>
+      <c r="I25" s="209" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="209" t="s">
+        <v>83</v>
       </c>
       <c r="K25" s="209" t="s">
         <v>83</v>
@@ -17053,11 +17089,11 @@
       <c r="H30" s="209" t="n">
         <v>52807</v>
       </c>
-      <c r="I30" s="209" t="n">
-        <v>54285</v>
-      </c>
-      <c r="J30" s="209" t="n">
-        <v>56121</v>
+      <c r="I30" s="209" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="209" t="s">
+        <v>84</v>
       </c>
       <c r="K30" s="209" t="s">
         <v>84</v>
@@ -17735,11 +17771,11 @@
         <v/>
       </c>
       <c r="I5" s="334">
-        <f>17291.41/(4097*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="J5" s="334">
-        <f>39963.7/(9534*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="K5" s="334">
@@ -17825,10 +17861,10 @@
         <v>80941.69999999995</v>
       </c>
       <c r="I8" s="86" t="n">
-        <v>68325.41999999993</v>
+        <v>145812.67</v>
       </c>
       <c r="J8" s="86" t="n">
-        <v>125145.2100000001</v>
+        <v>145812.67</v>
       </c>
       <c r="K8" s="86" t="n">
         <v>145812.67</v>
@@ -17972,10 +18008,10 @@
         <v>21687.70000000019</v>
       </c>
       <c r="I12" s="86" t="n">
-        <v>21606.39999999967</v>
+        <v>44414.6</v>
       </c>
       <c r="J12" s="86" t="n">
-        <v>49200.70000000019</v>
+        <v>44414.6</v>
       </c>
       <c r="K12" s="86" t="n">
         <v>44414.6</v>
@@ -18116,10 +18152,10 @@
         <v>25891.69999999995</v>
       </c>
       <c r="I16" s="86" t="n">
-        <v>38590.30000000028</v>
+        <v>67322.00000000009</v>
       </c>
       <c r="J16" s="86" t="n">
-        <v>69161.09999999986</v>
+        <v>67322.00000000009</v>
       </c>
       <c r="K16" s="86" t="n">
         <v>67322.00000000009</v>
@@ -18246,13 +18282,11 @@
         <f>128436/4</f>
         <v/>
       </c>
-      <c r="I19" s="86">
-        <f>129468.7/4</f>
-        <v/>
-      </c>
-      <c r="J19" s="86">
-        <f>234635.899999999/4</f>
-        <v/>
+      <c r="I19" s="86" t="n">
+        <v>60561.00000000028</v>
+      </c>
+      <c r="J19" s="86" t="n">
+        <v>60561.00000000028</v>
       </c>
       <c r="K19" s="86">
         <f>188612.11/4</f>
@@ -18398,13 +18432,11 @@
         <f>128436/4</f>
         <v/>
       </c>
-      <c r="I23" s="86">
-        <f>129468.7/4</f>
-        <v/>
-      </c>
-      <c r="J23" s="86">
-        <f>234635.899999999/4</f>
-        <v/>
+      <c r="I23" s="86" t="n">
+        <v>60561.00000000028</v>
+      </c>
+      <c r="J23" s="86" t="n">
+        <v>60561.00000000028</v>
       </c>
       <c r="K23" s="86">
         <f>188612.11/4</f>
@@ -18554,13 +18586,11 @@
         <f>128436/4</f>
         <v/>
       </c>
-      <c r="I27" s="86">
-        <f>129468.7/4</f>
-        <v/>
-      </c>
-      <c r="J27" s="86">
-        <f>234635.899999999/4</f>
-        <v/>
+      <c r="I27" s="86" t="n">
+        <v>60561.00000000028</v>
+      </c>
+      <c r="J27" s="86" t="n">
+        <v>60561.00000000028</v>
       </c>
       <c r="K27" s="86">
         <f>188612.11/4</f>
@@ -18709,13 +18739,11 @@
         <f>128436/4</f>
         <v/>
       </c>
-      <c r="I31" s="86">
-        <f>129468.7/4</f>
-        <v/>
-      </c>
-      <c r="J31" s="86">
-        <f>234635.899999999/4</f>
-        <v/>
+      <c r="I31" s="86" t="n">
+        <v>60561.00000000028</v>
+      </c>
+      <c r="J31" s="86" t="n">
+        <v>60561.00000000028</v>
       </c>
       <c r="K31" s="86">
         <f>188612.11/4</f>
@@ -18857,10 +18885,10 @@
         <v>16114.59999999998</v>
       </c>
       <c r="I35" s="86" t="n">
-        <v>15897.29999999993</v>
+        <v>24648.89999999995</v>
       </c>
       <c r="J35" s="86" t="n">
-        <v>32293.30000000016</v>
+        <v>24648.89999999995</v>
       </c>
       <c r="K35" s="86" t="n">
         <v>24648.89999999995</v>
@@ -18986,13 +19014,11 @@
         <f>50779.1/2</f>
         <v/>
       </c>
-      <c r="I38" s="86">
-        <f>50948.8999999999/2</f>
-        <v/>
-      </c>
-      <c r="J38" s="86">
-        <f>102823.2/2</f>
-        <v/>
+      <c r="I38" s="86" t="n">
+        <v>48791.14999999995</v>
+      </c>
+      <c r="J38" s="86" t="n">
+        <v>48791.14999999995</v>
       </c>
       <c r="K38" s="86" t="n">
         <v>48791.14999999995</v>
@@ -19121,13 +19147,11 @@
         <f>50779.1/2</f>
         <v/>
       </c>
-      <c r="I41" s="86">
-        <f>50948.8999999999/2</f>
-        <v/>
-      </c>
-      <c r="J41" s="86">
-        <f>102823.2/2</f>
-        <v/>
+      <c r="I41" s="86" t="n">
+        <v>48791.14999999995</v>
+      </c>
+      <c r="J41" s="86" t="n">
+        <v>48791.14999999995</v>
       </c>
       <c r="K41" s="86" t="n">
         <v>48791.14999999995</v>
@@ -19250,10 +19274,10 @@
         <v>574393.25</v>
       </c>
       <c r="I44" s="86" t="n">
-        <v>547749.1699999999</v>
+        <v>953782.8099999996</v>
       </c>
       <c r="J44" s="86" t="n">
-        <v>949181.0800000001</v>
+        <v>953782.8099999996</v>
       </c>
       <c r="K44" s="86" t="n">
         <v>953782.8099999996</v>
@@ -19380,10 +19404,10 @@
         <v>84722.90000000037</v>
       </c>
       <c r="I47" s="86" t="n">
-        <v>93125</v>
+        <v>168294.4000000002</v>
       </c>
       <c r="J47" s="86" t="n">
-        <v>180027.8999999994</v>
+        <v>168294.4000000002</v>
       </c>
       <c r="K47" s="86" t="n">
         <v>168294.4000000002</v>
@@ -19505,10 +19529,10 @@
         <v>138879.3999999994</v>
       </c>
       <c r="I50" s="86" t="n">
-        <v>131226.000000001</v>
+        <v>235512.4000000001</v>
       </c>
       <c r="J50" s="86" t="n">
-        <v>244658.1999999993</v>
+        <v>235512.4000000001</v>
       </c>
       <c r="K50" s="86" t="n">
         <v>235512.4000000001</v>
@@ -19631,10 +19655,10 @@
         <v>311386.5</v>
       </c>
       <c r="I53" s="86" t="n">
-        <v>284572.1000000015</v>
+        <v>562069.9000000013</v>
       </c>
       <c r="J53" s="86" t="n">
-        <v>618418.0999999978</v>
+        <v>562069.9000000013</v>
       </c>
       <c r="K53" s="86" t="n">
         <v>562069.9000000013</v>
